--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\iko_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8198A72A-4966-41EB-B1B7-DCD4B1EA57BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2218B-A98C-4BAA-837B-3506971869D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,81 +86,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28573</xdr:colOff>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF90D05B-3D41-9EF9-1CDB-F9750CCE4A1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714373" y="733425"/>
-          <a:ext cx="7886702" cy="4133849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -175,8 +109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714374" y="228600"/>
-          <a:ext cx="7877176" cy="495300"/>
+          <a:off x="704848" y="276225"/>
+          <a:ext cx="7924801" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -246,15 +180,81 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>28572</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF90D05B-3D41-9EF9-1CDB-F9750CCE4A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714372" y="762000"/>
+          <a:ext cx="7915277" cy="6305550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -269,7 +269,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="3009900"/>
+          <a:off x="838200" y="5210175"/>
           <a:ext cx="7639050" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2213,6 +2213,584 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ログ確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E512AA9-8BAA-43EB-9E07-42F97DF06453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="3533775"/>
+          <a:ext cx="3609975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2041CF-944D-4794-AEE9-FCFE2077B166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3524250"/>
+          <a:ext cx="3724275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6555937D-03E7-4801-AAD0-FFBABE81E603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="3990975"/>
+          <a:ext cx="1133475" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6A7AE5-8F71-4843-83AD-C0DF509350F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="4714875"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログ格納</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B73034-D7BE-4C27-8C60-F87814BE4841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="4724400"/>
+          <a:ext cx="3600450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66474FEF-1285-4306-B6D6-EB8EC546A9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="3257550"/>
+          <a:ext cx="3609975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移行データファイル移動元</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CFB782-4393-4A97-A2C0-42778F0CD6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="3238500"/>
+          <a:ext cx="3609975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>移行データファイル移動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>先</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A616DC-EF88-47C9-BB44-A0693A6820C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="4410075"/>
+          <a:ext cx="3609975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログ格納先</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2488,7 +3066,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\iko_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2218B-A98C-4BAA-837B-3506971869D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EBA503-E5C8-46A0-9198-BC8AAA39A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,13 +86,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19048</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -109,8 +109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704848" y="276225"/>
-          <a:ext cx="7924801" cy="495300"/>
+          <a:off x="714374" y="276225"/>
+          <a:ext cx="8715375" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -180,13 +180,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28572</xdr:colOff>
+      <xdr:colOff>28571</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -203,8 +203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714372" y="762000"/>
-          <a:ext cx="7915277" cy="6305550"/>
+          <a:off x="714371" y="762000"/>
+          <a:ext cx="8724903" cy="6305550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -246,13 +246,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -269,8 +269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="5210175"/>
-          <a:ext cx="7639050" cy="1704975"/>
+          <a:off x="866774" y="5210175"/>
+          <a:ext cx="8315325" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -315,14 +315,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647702</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -339,8 +339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2457450" y="876300"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="3381376" y="876300"/>
+          <a:ext cx="695326" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -467,14 +467,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -491,8 +491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="876300"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="4152900" y="876300"/>
+          <a:ext cx="790575" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -536,16 +536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -560,7 +560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7858124" y="352425"/>
+          <a:off x="8486774" y="381000"/>
           <a:ext cx="561975" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -605,16 +605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -629,7 +629,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7048500" y="342900"/>
+          <a:off x="7677150" y="371475"/>
           <a:ext cx="561975" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="chevron">
@@ -674,14 +674,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136403</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
@@ -698,8 +698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6486524" y="2438401"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="7610475" y="2438401"/>
+          <a:ext cx="755528" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -744,13 +744,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>447674</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
@@ -767,7 +767,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="2438400"/>
+          <a:off x="5124450" y="2438400"/>
           <a:ext cx="1495424" cy="352426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -826,14 +826,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
@@ -850,8 +850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448549" y="2438401"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="8420099" y="2438401"/>
+          <a:ext cx="819151" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -895,14 +895,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
@@ -919,8 +919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476499" y="1362076"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="3352800" y="1362076"/>
+          <a:ext cx="695326" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1047,14 +1047,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
@@ -1071,8 +1071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448049" y="1362076"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="4133848" y="1362076"/>
+          <a:ext cx="800101" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1116,14 +1116,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -1140,8 +1140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2457449" y="1914526"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="3352800" y="1914526"/>
+          <a:ext cx="695326" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1268,14 +1268,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -1292,8 +1292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3428999" y="1914526"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="4095749" y="1914526"/>
+          <a:ext cx="819151" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1337,14 +1337,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -1361,8 +1361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2495549" y="2428876"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="3343275" y="2428876"/>
+          <a:ext cx="695326" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1490,13 +1490,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:colOff>676274</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -1513,8 +1513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3467099" y="2428876"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="4105274" y="2428876"/>
+          <a:ext cx="828676" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1558,16 +1558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126878</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1582,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6476999" y="904876"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="7600950" y="933451"/>
+          <a:ext cx="755528" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1628,13 +1628,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
@@ -1651,7 +1651,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="904875"/>
+          <a:off x="5114925" y="904875"/>
           <a:ext cx="1495424" cy="352426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1710,16 +1710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1734,8 +1734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448549" y="904876"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="8410574" y="933451"/>
+          <a:ext cx="819151" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1779,16 +1779,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117353</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1803,8 +1803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467474" y="1352551"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="7591425" y="1381126"/>
+          <a:ext cx="755528" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1849,13 +1849,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
@@ -1872,7 +1872,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="1352550"/>
+          <a:off x="5105400" y="1352550"/>
           <a:ext cx="1495424" cy="352426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1931,16 +1931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1955,8 +1955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439024" y="1352551"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="8410574" y="1381126"/>
+          <a:ext cx="819151" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2000,14 +2000,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136403</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
@@ -2024,8 +2024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6486524" y="1885951"/>
-          <a:ext cx="904875" cy="342900"/>
+          <a:off x="7610475" y="1885951"/>
+          <a:ext cx="755528" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2070,13 +2070,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>447674</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -2093,7 +2093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="1895475"/>
+          <a:off x="5124450" y="1895475"/>
           <a:ext cx="1495424" cy="352426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2152,14 +2152,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
@@ -2176,8 +2176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439024" y="1866901"/>
-          <a:ext cx="981075" cy="342900"/>
+          <a:off x="8410574" y="1866901"/>
+          <a:ext cx="819151" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2222,15 +2222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2245,8 +2245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="3533775"/>
-          <a:ext cx="3609975" cy="276225"/>
+          <a:off x="857250" y="3514725"/>
+          <a:ext cx="3952875" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2291,14 +2291,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -2315,8 +2315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="3524250"/>
-          <a:ext cx="3724275" cy="276225"/>
+          <a:off x="5200650" y="3524250"/>
+          <a:ext cx="4048125" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,16 +2361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2385,7 +2385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7296150" y="3990975"/>
+          <a:off x="8153400" y="3962400"/>
           <a:ext cx="1133475" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2568,13 +2568,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2589,7 +2589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="3257550"/>
+          <a:off x="809625" y="3219450"/>
           <a:ext cx="3609975" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2636,14 +2636,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2660,7 +2660,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695825" y="3238500"/>
+          <a:off x="5133975" y="3238500"/>
           <a:ext cx="3609975" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2791,6 +2791,558 @@
               </a:solidFill>
             </a:rPr>
             <a:t>ログ格納先</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形: 角を丸くする 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE0D2F2-CC78-4BF8-B764-3553360414B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="876300"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="四角形: 角を丸くする 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65558E3-BF79-4AA9-ABEA-6FE13F24745C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="1352550"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515B6C54-0B23-4DA2-B89E-14EFE63ACF18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="1914525"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F332FE-7EDC-4173-952B-EA7D807EB59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="2419350"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1F4F7F-784F-41FF-9DFF-FE4C66AEC523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="923925"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形: 角を丸くする 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4A804C-B863-417A-B3AB-D0363888F322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1362075"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86CD952-06BB-4CF5-BA36-3373ABF43F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1924050"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形: 角を丸くする 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE45B148-28AC-4ACC-9C00-EECA734BE2CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="2428875"/>
+          <a:ext cx="876299" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動設定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3065,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\iko_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B143D9A-2886-4473-8E68-E0C2DB6B3FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9324D33-6A6E-4130-8A31-7B2FB949C557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="レイアウト JAVA移行ツール" sheetId="6" r:id="rId7"/>
     <sheet name="SQLLOADER" sheetId="4" r:id="rId8"/>
     <sheet name="レイアウト SQLLOADER (2)" sheetId="10" r:id="rId9"/>
-    <sheet name="レイアウト SQLLOADER" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="レイアウト SQLLOADER" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -482,27 +483,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -516,27 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -545,9 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -15146,6 +15147,99 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>87046</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>10260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7272EFB9-4C9D-4B2A-0886-EEF0E31D5E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12563475" y="939512"/>
+          <a:ext cx="9469171" cy="11215123"/>
+          <a:chOff x="12563475" y="939512"/>
+          <a:chExt cx="9469171" cy="11215123"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277EBE2E-633C-136B-93D3-F3B97463ADCB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12673445" y="939512"/>
+            <a:ext cx="9250066" cy="5978205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA0F66C-EE04-63B3-E419-A2716CD82576}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12563475" y="6886575"/>
+            <a:ext cx="9469171" cy="5268060"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18768,6 +18862,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF889F8D-ED11-4209-9EA7-8129FA6DDFA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57117EB-CA2C-4D91-8D1E-DCB78A99C907}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18801,46 +18910,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3">
@@ -18858,12 +18967,12 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -18893,7 +19002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D59D82-36CF-4BF9-8FF4-3AC55EC4D215}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -18923,46 +19032,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3">
@@ -18980,12 +19089,12 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -19048,37 +19157,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
@@ -19094,8 +19203,8 @@
       <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="3">
@@ -19122,10 +19231,10 @@
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -19149,7 +19258,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -19185,44 +19294,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="31"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="32"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -19240,7 +19349,7 @@
       <c r="L3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="16"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="2:13" ht="27" customHeight="1">
       <c r="B4" s="3">
@@ -19276,7 +19385,7 @@
       <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -19299,8 +19408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AC153F-F7B9-42E3-B4A7-D016D7AC7EBD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="J26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH31" sqref="AH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
